--- a/Experiments/Part1-Uniform-MajorMinor/Random/Uniform Results/Graphs.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Random/Uniform Results/Graphs.xlsx
@@ -2913,20 +2913,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112755272"/>
-        <c:axId val="-2112752328"/>
+        <c:axId val="2101858776"/>
+        <c:axId val="2105372200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112755272"/>
+        <c:axId val="2101858776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112752328"/>
+        <c:crossAx val="2105372200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2934,18 +2953,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112752328"/>
+        <c:axId val="2105372200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112755272"/>
+        <c:crossAx val="2101858776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5677,20 +5715,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125432472"/>
-        <c:axId val="-2112625128"/>
+        <c:axId val="2056517000"/>
+        <c:axId val="2094563592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125432472"/>
+        <c:axId val="2056517000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112625128"/>
+        <c:crossAx val="2094563592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5698,18 +5755,59 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112625128"/>
+        <c:axId val="2094563592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accumulated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125432472"/>
+        <c:crossAx val="2056517000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6297,20 +6395,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112445192"/>
-        <c:axId val="-2112280104"/>
+        <c:axId val="2094745480"/>
+        <c:axId val="2094273256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112445192"/>
+        <c:axId val="2094745480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112280104"/>
+        <c:crossAx val="2094273256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6318,18 +6435,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112280104"/>
+        <c:axId val="2094273256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112445192"/>
+        <c:crossAx val="2094745480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6451,23 +6587,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6475,15 +6611,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6810,8 +6946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AH1:AI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
